--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.465615333333333</v>
+        <v>1.609586333333333</v>
       </c>
       <c r="H2">
-        <v>4.396846</v>
+        <v>4.828759</v>
       </c>
       <c r="I2">
-        <v>0.04672291954663727</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="J2">
-        <v>0.04672291954663728</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.84053233333333</v>
+        <v>6.977989333333333</v>
       </c>
       <c r="N2">
-        <v>92.521597</v>
+        <v>20.933968</v>
       </c>
       <c r="O2">
-        <v>0.2792762306509579</v>
+        <v>0.08060734116444308</v>
       </c>
       <c r="P2">
-        <v>0.2792762306509579</v>
+        <v>0.0806073411644431</v>
       </c>
       <c r="Q2">
-        <v>45.20035707589577</v>
+        <v>11.23167626507911</v>
       </c>
       <c r="R2">
-        <v>406.803213683062</v>
+        <v>101.085086385712</v>
       </c>
       <c r="S2">
-        <v>0.01304860085599282</v>
+        <v>0.004117277323388096</v>
       </c>
       <c r="T2">
-        <v>0.01304860085599282</v>
+        <v>0.004117277323388097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.465615333333333</v>
+        <v>1.609586333333333</v>
       </c>
       <c r="H3">
-        <v>4.396846</v>
+        <v>4.828759</v>
       </c>
       <c r="I3">
-        <v>0.04672291954663727</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="J3">
-        <v>0.04672291954663728</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>208.582405</v>
       </c>
       <c r="O3">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597853</v>
       </c>
       <c r="P3">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597854</v>
       </c>
       <c r="Q3">
-        <v>101.9005236771811</v>
+        <v>111.9104628205994</v>
       </c>
       <c r="R3">
-        <v>917.10471309463</v>
+        <v>1007.194165385395</v>
       </c>
       <c r="S3">
-        <v>0.02941700788441904</v>
+        <v>0.04102383294768826</v>
       </c>
       <c r="T3">
-        <v>0.02941700788441905</v>
+        <v>0.04102383294768827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.465615333333333</v>
+        <v>1.609586333333333</v>
       </c>
       <c r="H4">
-        <v>4.396846</v>
+        <v>4.828759</v>
       </c>
       <c r="I4">
-        <v>0.04672291954663727</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="J4">
-        <v>0.04672291954663728</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>30.186623</v>
       </c>
       <c r="O4">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757715</v>
       </c>
       <c r="P4">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757716</v>
       </c>
       <c r="Q4">
-        <v>14.74732584345089</v>
+        <v>16.19599194342856</v>
       </c>
       <c r="R4">
-        <v>132.725932591058</v>
+        <v>145.763927490857</v>
       </c>
       <c r="S4">
-        <v>0.004257310806225411</v>
+        <v>0.005937082656645197</v>
       </c>
       <c r="T4">
-        <v>0.004257310806225411</v>
+        <v>0.005937082656645198</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>56.64711800000001</v>
       </c>
       <c r="I5">
-        <v>0.6019584804341267</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="J5">
-        <v>0.6019584804341268</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.84053233333333</v>
+        <v>6.977989333333333</v>
       </c>
       <c r="N5">
-        <v>92.521597</v>
+        <v>20.933968</v>
       </c>
       <c r="O5">
-        <v>0.2792762306509579</v>
+        <v>0.08060734116444308</v>
       </c>
       <c r="P5">
-        <v>0.2792762306509579</v>
+        <v>0.0806073411644431</v>
       </c>
       <c r="Q5">
-        <v>582.3424247563829</v>
+        <v>131.7609950560249</v>
       </c>
       <c r="R5">
-        <v>5241.081822807447</v>
+        <v>1185.848955504224</v>
       </c>
       <c r="S5">
-        <v>0.1681126954240213</v>
+        <v>0.04830058704041549</v>
       </c>
       <c r="T5">
-        <v>0.1681126954240213</v>
+        <v>0.0483005870404155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>56.64711800000001</v>
       </c>
       <c r="I6">
-        <v>0.6019584804341267</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="J6">
-        <v>0.6019584804341268</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>208.582405</v>
       </c>
       <c r="O6">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597853</v>
       </c>
       <c r="P6">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597854</v>
       </c>
       <c r="Q6">
         <v>1312.843567639866</v>
@@ -818,10 +818,10 @@
         <v>11815.59210875879</v>
       </c>
       <c r="S6">
-        <v>0.3789963798676633</v>
+        <v>0.4812586227227297</v>
       </c>
       <c r="T6">
-        <v>0.3789963798676634</v>
+        <v>0.4812586227227297</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>56.64711800000001</v>
       </c>
       <c r="I7">
-        <v>0.6019584804341267</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="J7">
-        <v>0.6019584804341268</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>30.186623</v>
       </c>
       <c r="O7">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757715</v>
       </c>
       <c r="P7">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757716</v>
       </c>
       <c r="Q7">
         <v>189.9983550113905</v>
@@ -880,10 +880,10 @@
         <v>1709.985195102514</v>
       </c>
       <c r="S7">
-        <v>0.0548494051424421</v>
+        <v>0.06964907998654189</v>
       </c>
       <c r="T7">
-        <v>0.05484940514244212</v>
+        <v>0.06964907998654189</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>11.020243</v>
       </c>
       <c r="H8">
-        <v>33.06072899999999</v>
+        <v>33.060729</v>
       </c>
       <c r="I8">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="J8">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.84053233333333</v>
+        <v>6.977989333333333</v>
       </c>
       <c r="N8">
-        <v>92.521597</v>
+        <v>20.933968</v>
       </c>
       <c r="O8">
-        <v>0.2792762306509579</v>
+        <v>0.08060734116444308</v>
       </c>
       <c r="P8">
-        <v>0.2792762306509579</v>
+        <v>0.0806073411644431</v>
       </c>
       <c r="Q8">
-        <v>339.8701605626903</v>
+        <v>76.89913810474134</v>
       </c>
       <c r="R8">
-        <v>3058.831445064212</v>
+        <v>692.0922429426721</v>
       </c>
       <c r="S8">
-        <v>0.09811493437094378</v>
+        <v>0.0281894768006395</v>
       </c>
       <c r="T8">
-        <v>0.09811493437094378</v>
+        <v>0.02818947680063951</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>11.020243</v>
       </c>
       <c r="H9">
-        <v>33.06072899999999</v>
+        <v>33.060729</v>
       </c>
       <c r="I9">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="J9">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>208.582405</v>
       </c>
       <c r="O9">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597853</v>
       </c>
       <c r="P9">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597854</v>
       </c>
       <c r="Q9">
-        <v>766.2095962081382</v>
+        <v>766.2095962081384</v>
       </c>
       <c r="R9">
-        <v>6895.886365873243</v>
+        <v>6895.886365873245</v>
       </c>
       <c r="S9">
-        <v>0.2211921285525218</v>
+        <v>0.2808750288893674</v>
       </c>
       <c r="T9">
-        <v>0.2211921285525218</v>
+        <v>0.2808750288893675</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>11.020243</v>
       </c>
       <c r="H10">
-        <v>33.06072899999999</v>
+        <v>33.060729</v>
       </c>
       <c r="I10">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="J10">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>30.186623</v>
       </c>
       <c r="O10">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757715</v>
       </c>
       <c r="P10">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757716</v>
       </c>
       <c r="Q10">
         <v>110.8879736031297</v>
       </c>
       <c r="R10">
-        <v>997.9917624281668</v>
+        <v>997.9917624281671</v>
       </c>
       <c r="S10">
-        <v>0.03201153709577043</v>
+        <v>0.04064901163258446</v>
       </c>
       <c r="T10">
-        <v>0.03201153709577043</v>
+        <v>0.04064901163258447</v>
       </c>
     </row>
   </sheetData>
